--- a/ZYJData(4790).xlsx
+++ b/ZYJData(4790).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\Work\12-冠宇数采项目\ReadFromStructArray\ZhuYeJi_MC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\Work\12-冠宇数采项目\ReadFromStructArray\ZhuYeJi_MC\ZhuYeJi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE2C081-201F-486A-B29C-7A05CAAF8E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4965495E-4D41-47B4-92B3-EEE3EB5395B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15720" tabRatio="579" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15720" tabRatio="579" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -17548,10 +17548,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>li</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>电芯条码地址采集值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -17569,6 +17565,10 @@
   </si>
   <si>
     <t>DM1700-DM1709</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM300</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -20501,8 +20501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D08242-E6AE-4C81-896F-FD26469F8F90}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -20550,7 +20550,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>5712</v>
+        <v>5717</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>4224</v>
@@ -51812,8 +51812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -51852,7 +51852,7 @@
         <v>4104</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>5713</v>
+        <v>5712</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4105</v>
@@ -51881,7 +51881,7 @@
         <v>5693</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>5717</v>
+        <v>5716</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -53057,7 +53057,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -54360,7 +54360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15975BDB-88ED-49D9-A5D2-92AE210C4956}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
@@ -54412,7 +54412,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>5714</v>
+        <v>5713</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>4143</v>
@@ -54437,7 +54437,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>5715</v>
+        <v>5714</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>4144</v>
@@ -54462,7 +54462,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>5716</v>
+        <v>5715</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>4145</v>
